--- a/EODATE-Drill.xlsx
+++ b/EODATE-Drill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB2F7F2-C7E6-49AC-86A9-B9D35D8C215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1529A-9115-490B-8DA3-B84E8080FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>FROM:</t>
   </si>
@@ -134,15 +134,27 @@
   <si>
     <t>Month</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -224,6 +236,14 @@
       <color rgb="FF00B050"/>
       <name val="Consolas"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,7 +340,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -330,14 +350,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -355,7 +377,10 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -588,27 +613,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -632,6 +657,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>505103</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD30C764-F6E6-74E9-1098-362CDA881F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3131820" y="3741420"/>
+          <a:ext cx="1991003" cy="3334215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -759,7 +833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -849,6 +923,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B89BCD38-9C72-4500-8963-9F85978F4134}" name="Table2" displayName="Table2" ref="F5:G21" totalsRowShown="0">
+  <autoFilter ref="F5:G21" xr:uid="{B89BCD38-9C72-4500-8963-9F85978F4134}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{21FEFF57-B379-427A-A537-5F9E363C6882}" name="Date" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A83023BE-9878-4968-8CF3-36B571428AF3}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="Biegert Table Standard" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}" name="_tSample" displayName="_tSample" ref="B7:E13" totalsRowShown="0">
   <autoFilter ref="B7:E13" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}"/>
   <tableColumns count="4">
@@ -1051,18 +1136,21 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:J372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1159,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1079,26 +1167,56 @@
         <v>21</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>45345</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="12">
+        <v>45171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" cm="1">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F6" s="12">
+        <v>45123</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <f>SUMIFS(Table2[Value],Table2[Date],"&gt;"&amp;EOMONTH($J$3,-1),Table2[Date],"&lt;="&amp;EOMONTH($J$3,0))</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" cm="1">
         <f t="array" ref="B7:B372">DATE(2024,1,_xlfn.SEQUENCE(366,1,1,1))</f>
         <v>45292</v>
       </c>
@@ -1106,136 +1224,226 @@
         <f>MONTH(B7)=$C$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="F7" s="12">
+        <v>45148</v>
+      </c>
+      <c r="G7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>45293</v>
       </c>
       <c r="C8" t="b">
         <f t="shared" ref="C8:C71" si="0">MONTH(B8)=$C$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+      <c r="F8" s="12">
+        <v>45150</v>
+      </c>
+      <c r="G8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>45294</v>
       </c>
       <c r="C9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="F9" s="12">
+        <v>45153</v>
+      </c>
+      <c r="G9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>45295</v>
       </c>
       <c r="C10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+      <c r="F10" s="12">
+        <v>45165</v>
+      </c>
+      <c r="G10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>45296</v>
       </c>
       <c r="C11" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
+      <c r="E11" s="9"/>
+      <c r="F11" s="12">
+        <v>45171</v>
+      </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>45297</v>
       </c>
       <c r="C12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+      <c r="F12" s="12">
+        <v>45173</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>45298</v>
       </c>
       <c r="C13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="F13" s="12">
+        <v>45174</v>
+      </c>
+      <c r="G13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
         <v>45299</v>
       </c>
       <c r="C14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
+      <c r="F14" s="12">
+        <v>45177</v>
+      </c>
+      <c r="G14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>45300</v>
       </c>
       <c r="C15" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12">
+      <c r="F15" s="12">
+        <v>45194</v>
+      </c>
+      <c r="G15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>45301</v>
       </c>
       <c r="C16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="F16" s="12">
+        <v>45200</v>
+      </c>
+      <c r="G16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>45302</v>
       </c>
       <c r="C17" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12">
+      <c r="F17" s="12">
+        <v>45205</v>
+      </c>
+      <c r="G17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>45303</v>
       </c>
       <c r="C18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+      <c r="F18" s="12">
+        <v>45206</v>
+      </c>
+      <c r="G18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>45304</v>
       </c>
       <c r="C19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+      <c r="F19" s="12">
+        <v>45208</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>45305</v>
       </c>
       <c r="C20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="F20" s="12">
+        <v>45209</v>
+      </c>
+      <c r="G20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>45306</v>
       </c>
       <c r="C21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+      <c r="F21" s="12">
+        <v>45211</v>
+      </c>
+      <c r="G21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>45307</v>
       </c>
       <c r="C22" t="b">
@@ -1243,8 +1451,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <v>45308</v>
       </c>
       <c r="C23" t="b">
@@ -1252,8 +1460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
         <v>45309</v>
       </c>
       <c r="C24" t="b">
@@ -1261,8 +1469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
         <v>45310</v>
       </c>
       <c r="C25" t="b">
@@ -1270,8 +1478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="12">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
         <v>45311</v>
       </c>
       <c r="C26" t="b">
@@ -1279,8 +1487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
         <v>45312</v>
       </c>
       <c r="C27" t="b">
@@ -1288,8 +1496,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="12">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>45313</v>
       </c>
       <c r="C28" t="b">
@@ -1297,8 +1505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
         <v>45314</v>
       </c>
       <c r="C29" t="b">
@@ -1306,8 +1514,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
         <v>45315</v>
       </c>
       <c r="C30" t="b">
@@ -1315,8 +1523,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
         <v>45316</v>
       </c>
       <c r="C31" t="b">
@@ -1324,8 +1532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="12">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
         <v>45317</v>
       </c>
       <c r="C32" t="b">
@@ -1334,7 +1542,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>45318</v>
       </c>
       <c r="C33" t="b">
@@ -1343,7 +1551,7 @@
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>45319</v>
       </c>
       <c r="C34" t="b">
@@ -1352,7 +1560,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>45320</v>
       </c>
       <c r="C35" t="b">
@@ -1361,7 +1569,7 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>45321</v>
       </c>
       <c r="C36" t="b">
@@ -1370,7 +1578,7 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>45322</v>
       </c>
       <c r="C37" t="b">
@@ -1379,7 +1587,7 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>45323</v>
       </c>
       <c r="C38" t="b">
@@ -1388,7 +1596,7 @@
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>45324</v>
       </c>
       <c r="C39" t="b">
@@ -1397,7 +1605,7 @@
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>45325</v>
       </c>
       <c r="C40" t="b">
@@ -1406,7 +1614,7 @@
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>45326</v>
       </c>
       <c r="C41" t="b">
@@ -1415,7 +1623,7 @@
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>45327</v>
       </c>
       <c r="C42" t="b">
@@ -1424,7 +1632,7 @@
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>45328</v>
       </c>
       <c r="C43" t="b">
@@ -1433,7 +1641,7 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>45329</v>
       </c>
       <c r="C44" t="b">
@@ -1442,7 +1650,7 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>45330</v>
       </c>
       <c r="C45" t="b">
@@ -1451,7 +1659,7 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>45331</v>
       </c>
       <c r="C46" t="b">
@@ -1460,7 +1668,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>45332</v>
       </c>
       <c r="C47" t="b">
@@ -1469,7 +1677,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>45333</v>
       </c>
       <c r="C48" t="b">
@@ -1478,7 +1686,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>45334</v>
       </c>
       <c r="C49" t="b">
@@ -1487,7 +1695,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>45335</v>
       </c>
       <c r="C50" t="b">
@@ -1496,7 +1704,7 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>45336</v>
       </c>
       <c r="C51" t="b">
@@ -1505,7 +1713,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>45337</v>
       </c>
       <c r="C52" t="b">
@@ -1514,7 +1722,7 @@
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>45338</v>
       </c>
       <c r="C53" t="b">
@@ -1523,7 +1731,7 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>45339</v>
       </c>
       <c r="C54" t="b">
@@ -1532,7 +1740,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>45340</v>
       </c>
       <c r="C55" t="b">
@@ -1541,7 +1749,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>45341</v>
       </c>
       <c r="C56" t="b">
@@ -1550,7 +1758,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>45342</v>
       </c>
       <c r="C57" t="b">
@@ -1559,7 +1767,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>45343</v>
       </c>
       <c r="C58" t="b">
@@ -1568,7 +1776,7 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>45344</v>
       </c>
       <c r="C59" t="b">
@@ -1577,7 +1785,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>45345</v>
       </c>
       <c r="C60" t="b">
@@ -1586,7 +1794,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>45346</v>
       </c>
       <c r="C61" t="b">
@@ -1595,7 +1803,7 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>45347</v>
       </c>
       <c r="C62" t="b">
@@ -1604,7 +1812,7 @@
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>45348</v>
       </c>
       <c r="C63" t="b">
@@ -1613,7 +1821,7 @@
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>45349</v>
       </c>
       <c r="C64" t="b">
@@ -1622,7 +1830,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>45350</v>
       </c>
       <c r="C65" t="b">
@@ -1631,7 +1839,7 @@
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>45351</v>
       </c>
       <c r="C66" t="b">
@@ -1640,7 +1848,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>45352</v>
       </c>
       <c r="C67" t="b">
@@ -1649,7 +1857,7 @@
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>45353</v>
       </c>
       <c r="C68" t="b">
@@ -1658,7 +1866,7 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <v>45354</v>
       </c>
       <c r="C69" t="b">
@@ -1667,7 +1875,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>45355</v>
       </c>
       <c r="C70" t="b">
@@ -1676,7 +1884,7 @@
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>45356</v>
       </c>
       <c r="C71" t="b">
@@ -1685,7 +1893,7 @@
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>45357</v>
       </c>
       <c r="C72" t="b">
@@ -1694,7 +1902,7 @@
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>45358</v>
       </c>
       <c r="C73" t="b">
@@ -1703,7 +1911,7 @@
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>45359</v>
       </c>
       <c r="C74" t="b">
@@ -1712,7 +1920,7 @@
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>45360</v>
       </c>
       <c r="C75" t="b">
@@ -1721,7 +1929,7 @@
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>45361</v>
       </c>
       <c r="C76" t="b">
@@ -1730,7 +1938,7 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>45362</v>
       </c>
       <c r="C77" t="b">
@@ -1739,7 +1947,7 @@
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <v>45363</v>
       </c>
       <c r="C78" t="b">
@@ -1748,7 +1956,7 @@
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <v>45364</v>
       </c>
       <c r="C79" t="b">
@@ -1757,7 +1965,7 @@
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+      <c r="B80" s="11">
         <v>45365</v>
       </c>
       <c r="C80" t="b">
@@ -1766,7 +1974,7 @@
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+      <c r="B81" s="11">
         <v>45366</v>
       </c>
       <c r="C81" t="b">
@@ -1775,7 +1983,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <v>45367</v>
       </c>
       <c r="C82" t="b">
@@ -1784,7 +1992,7 @@
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+      <c r="B83" s="11">
         <v>45368</v>
       </c>
       <c r="C83" t="b">
@@ -1793,7 +2001,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="12">
+      <c r="B84" s="11">
         <v>45369</v>
       </c>
       <c r="C84" t="b">
@@ -1802,7 +2010,7 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+      <c r="B85" s="11">
         <v>45370</v>
       </c>
       <c r="C85" t="b">
@@ -1811,7 +2019,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="12">
+      <c r="B86" s="11">
         <v>45371</v>
       </c>
       <c r="C86" t="b">
@@ -1820,7 +2028,7 @@
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="12">
+      <c r="B87" s="11">
         <v>45372</v>
       </c>
       <c r="C87" t="b">
@@ -1829,7 +2037,7 @@
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="12">
+      <c r="B88" s="11">
         <v>45373</v>
       </c>
       <c r="C88" t="b">
@@ -1838,7 +2046,7 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="12">
+      <c r="B89" s="11">
         <v>45374</v>
       </c>
       <c r="C89" t="b">
@@ -1847,7 +2055,7 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <v>45375</v>
       </c>
       <c r="C90" t="b">
@@ -1856,7 +2064,7 @@
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <v>45376</v>
       </c>
       <c r="C91" t="b">
@@ -1865,7 +2073,7 @@
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="12">
+      <c r="B92" s="11">
         <v>45377</v>
       </c>
       <c r="C92" t="b">
@@ -1874,7 +2082,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="12">
+      <c r="B93" s="11">
         <v>45378</v>
       </c>
       <c r="C93" t="b">
@@ -1883,7 +2091,7 @@
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="12">
+      <c r="B94" s="11">
         <v>45379</v>
       </c>
       <c r="C94" t="b">
@@ -1892,7 +2100,7 @@
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="12">
+      <c r="B95" s="11">
         <v>45380</v>
       </c>
       <c r="C95" t="b">
@@ -1901,7 +2109,7 @@
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="12">
+      <c r="B96" s="11">
         <v>45381</v>
       </c>
       <c r="C96" t="b">
@@ -1910,7 +2118,7 @@
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="12">
+      <c r="B97" s="11">
         <v>45382</v>
       </c>
       <c r="C97" t="b">
@@ -1919,7 +2127,7 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="12">
+      <c r="B98" s="11">
         <v>45383</v>
       </c>
       <c r="C98" t="b">
@@ -1928,7 +2136,7 @@
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="12">
+      <c r="B99" s="11">
         <v>45384</v>
       </c>
       <c r="C99" t="b">
@@ -1937,7 +2145,7 @@
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="12">
+      <c r="B100" s="11">
         <v>45385</v>
       </c>
       <c r="C100" t="b">
@@ -1946,7 +2154,7 @@
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="12">
+      <c r="B101" s="11">
         <v>45386</v>
       </c>
       <c r="C101" t="b">
@@ -1955,7 +2163,7 @@
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="12">
+      <c r="B102" s="11">
         <v>45387</v>
       </c>
       <c r="C102" t="b">
@@ -1964,7 +2172,7 @@
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="12">
+      <c r="B103" s="11">
         <v>45388</v>
       </c>
       <c r="C103" t="b">
@@ -1973,7 +2181,7 @@
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="12">
+      <c r="B104" s="11">
         <v>45389</v>
       </c>
       <c r="C104" t="b">
@@ -1982,7 +2190,7 @@
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="12">
+      <c r="B105" s="11">
         <v>45390</v>
       </c>
       <c r="C105" t="b">
@@ -1991,7 +2199,7 @@
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="12">
+      <c r="B106" s="11">
         <v>45391</v>
       </c>
       <c r="C106" t="b">
@@ -2000,7 +2208,7 @@
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="12">
+      <c r="B107" s="11">
         <v>45392</v>
       </c>
       <c r="C107" t="b">
@@ -2009,7 +2217,7 @@
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="12">
+      <c r="B108" s="11">
         <v>45393</v>
       </c>
       <c r="C108" t="b">
@@ -2018,7 +2226,7 @@
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="12">
+      <c r="B109" s="11">
         <v>45394</v>
       </c>
       <c r="C109" t="b">
@@ -2027,7 +2235,7 @@
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <v>45395</v>
       </c>
       <c r="C110" t="b">
@@ -2036,7 +2244,7 @@
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="12">
+      <c r="B111" s="11">
         <v>45396</v>
       </c>
       <c r="C111" t="b">
@@ -2045,7 +2253,7 @@
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="12">
+      <c r="B112" s="11">
         <v>45397</v>
       </c>
       <c r="C112" t="b">
@@ -2054,7 +2262,7 @@
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="12">
+      <c r="B113" s="11">
         <v>45398</v>
       </c>
       <c r="C113" t="b">
@@ -2063,7 +2271,7 @@
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="12">
+      <c r="B114" s="11">
         <v>45399</v>
       </c>
       <c r="C114" t="b">
@@ -2072,7 +2280,7 @@
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="12">
+      <c r="B115" s="11">
         <v>45400</v>
       </c>
       <c r="C115" t="b">
@@ -2081,7 +2289,7 @@
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="12">
+      <c r="B116" s="11">
         <v>45401</v>
       </c>
       <c r="C116" t="b">
@@ -2090,7 +2298,7 @@
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="12">
+      <c r="B117" s="11">
         <v>45402</v>
       </c>
       <c r="C117" t="b">
@@ -2099,7 +2307,7 @@
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="12">
+      <c r="B118" s="11">
         <v>45403</v>
       </c>
       <c r="C118" t="b">
@@ -2108,7 +2316,7 @@
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="12">
+      <c r="B119" s="11">
         <v>45404</v>
       </c>
       <c r="C119" t="b">
@@ -2117,7 +2325,7 @@
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="12">
+      <c r="B120" s="11">
         <v>45405</v>
       </c>
       <c r="C120" t="b">
@@ -2126,7 +2334,7 @@
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="12">
+      <c r="B121" s="11">
         <v>45406</v>
       </c>
       <c r="C121" t="b">
@@ -2135,7 +2343,7 @@
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="12">
+      <c r="B122" s="11">
         <v>45407</v>
       </c>
       <c r="C122" t="b">
@@ -2144,7 +2352,7 @@
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="12">
+      <c r="B123" s="11">
         <v>45408</v>
       </c>
       <c r="C123" t="b">
@@ -2153,7 +2361,7 @@
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="12">
+      <c r="B124" s="11">
         <v>45409</v>
       </c>
       <c r="C124" t="b">
@@ -2162,7 +2370,7 @@
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="12">
+      <c r="B125" s="11">
         <v>45410</v>
       </c>
       <c r="C125" t="b">
@@ -2171,7 +2379,7 @@
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="12">
+      <c r="B126" s="11">
         <v>45411</v>
       </c>
       <c r="C126" t="b">
@@ -2180,7 +2388,7 @@
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="12">
+      <c r="B127" s="11">
         <v>45412</v>
       </c>
       <c r="C127" t="b">
@@ -2189,7 +2397,7 @@
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="12">
+      <c r="B128" s="11">
         <v>45413</v>
       </c>
       <c r="C128" t="b">
@@ -2198,7 +2406,7 @@
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="12">
+      <c r="B129" s="11">
         <v>45414</v>
       </c>
       <c r="C129" t="b">
@@ -2207,7 +2415,7 @@
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="12">
+      <c r="B130" s="11">
         <v>45415</v>
       </c>
       <c r="C130" t="b">
@@ -2216,7 +2424,7 @@
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="12">
+      <c r="B131" s="11">
         <v>45416</v>
       </c>
       <c r="C131" t="b">
@@ -2225,7 +2433,7 @@
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="12">
+      <c r="B132" s="11">
         <v>45417</v>
       </c>
       <c r="C132" t="b">
@@ -2234,7 +2442,7 @@
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="12">
+      <c r="B133" s="11">
         <v>45418</v>
       </c>
       <c r="C133" t="b">
@@ -2243,7 +2451,7 @@
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="12">
+      <c r="B134" s="11">
         <v>45419</v>
       </c>
       <c r="C134" t="b">
@@ -2252,7 +2460,7 @@
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="12">
+      <c r="B135" s="11">
         <v>45420</v>
       </c>
       <c r="C135" t="b">
@@ -2261,7 +2469,7 @@
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="12">
+      <c r="B136" s="11">
         <v>45421</v>
       </c>
       <c r="C136" t="b">
@@ -2270,7 +2478,7 @@
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="12">
+      <c r="B137" s="11">
         <v>45422</v>
       </c>
       <c r="C137" t="b">
@@ -2279,7 +2487,7 @@
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="12">
+      <c r="B138" s="11">
         <v>45423</v>
       </c>
       <c r="C138" t="b">
@@ -2288,7 +2496,7 @@
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="12">
+      <c r="B139" s="11">
         <v>45424</v>
       </c>
       <c r="C139" t="b">
@@ -2297,7 +2505,7 @@
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="12">
+      <c r="B140" s="11">
         <v>45425</v>
       </c>
       <c r="C140" t="b">
@@ -2306,7 +2514,7 @@
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="12">
+      <c r="B141" s="11">
         <v>45426</v>
       </c>
       <c r="C141" t="b">
@@ -2315,7 +2523,7 @@
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="12">
+      <c r="B142" s="11">
         <v>45427</v>
       </c>
       <c r="C142" t="b">
@@ -2324,7 +2532,7 @@
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="12">
+      <c r="B143" s="11">
         <v>45428</v>
       </c>
       <c r="C143" t="b">
@@ -2333,7 +2541,7 @@
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="12">
+      <c r="B144" s="11">
         <v>45429</v>
       </c>
       <c r="C144" t="b">
@@ -2342,7 +2550,7 @@
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="12">
+      <c r="B145" s="11">
         <v>45430</v>
       </c>
       <c r="C145" t="b">
@@ -2351,7 +2559,7 @@
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="12">
+      <c r="B146" s="11">
         <v>45431</v>
       </c>
       <c r="C146" t="b">
@@ -2360,7 +2568,7 @@
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="12">
+      <c r="B147" s="11">
         <v>45432</v>
       </c>
       <c r="C147" t="b">
@@ -2369,7 +2577,7 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="12">
+      <c r="B148" s="11">
         <v>45433</v>
       </c>
       <c r="C148" t="b">
@@ -2378,7 +2586,7 @@
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="12">
+      <c r="B149" s="11">
         <v>45434</v>
       </c>
       <c r="C149" t="b">
@@ -2387,7 +2595,7 @@
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="12">
+      <c r="B150" s="11">
         <v>45435</v>
       </c>
       <c r="C150" t="b">
@@ -2396,7 +2604,7 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="12">
+      <c r="B151" s="11">
         <v>45436</v>
       </c>
       <c r="C151" t="b">
@@ -2405,7 +2613,7 @@
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="12">
+      <c r="B152" s="11">
         <v>45437</v>
       </c>
       <c r="C152" t="b">
@@ -2414,7 +2622,7 @@
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="12">
+      <c r="B153" s="11">
         <v>45438</v>
       </c>
       <c r="C153" t="b">
@@ -2423,7 +2631,7 @@
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="12">
+      <c r="B154" s="11">
         <v>45439</v>
       </c>
       <c r="C154" t="b">
@@ -2432,7 +2640,7 @@
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="12">
+      <c r="B155" s="11">
         <v>45440</v>
       </c>
       <c r="C155" t="b">
@@ -2441,7 +2649,7 @@
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="12">
+      <c r="B156" s="11">
         <v>45441</v>
       </c>
       <c r="C156" t="b">
@@ -2450,7 +2658,7 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="12">
+      <c r="B157" s="11">
         <v>45442</v>
       </c>
       <c r="C157" t="b">
@@ -2459,7 +2667,7 @@
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="12">
+      <c r="B158" s="11">
         <v>45443</v>
       </c>
       <c r="C158" t="b">
@@ -2468,7 +2676,7 @@
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="12">
+      <c r="B159" s="11">
         <v>45444</v>
       </c>
       <c r="C159" t="b">
@@ -2477,7 +2685,7 @@
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="12">
+      <c r="B160" s="11">
         <v>45445</v>
       </c>
       <c r="C160" t="b">
@@ -2486,7 +2694,7 @@
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="12">
+      <c r="B161" s="11">
         <v>45446</v>
       </c>
       <c r="C161" t="b">
@@ -2495,7 +2703,7 @@
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="12">
+      <c r="B162" s="11">
         <v>45447</v>
       </c>
       <c r="C162" t="b">
@@ -2504,7 +2712,7 @@
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="12">
+      <c r="B163" s="11">
         <v>45448</v>
       </c>
       <c r="C163" t="b">
@@ -2513,7 +2721,7 @@
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="12">
+      <c r="B164" s="11">
         <v>45449</v>
       </c>
       <c r="C164" t="b">
@@ -2522,7 +2730,7 @@
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="12">
+      <c r="B165" s="11">
         <v>45450</v>
       </c>
       <c r="C165" t="b">
@@ -2531,7 +2739,7 @@
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="12">
+      <c r="B166" s="11">
         <v>45451</v>
       </c>
       <c r="C166" t="b">
@@ -2540,7 +2748,7 @@
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="12">
+      <c r="B167" s="11">
         <v>45452</v>
       </c>
       <c r="C167" t="b">
@@ -2549,7 +2757,7 @@
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="12">
+      <c r="B168" s="11">
         <v>45453</v>
       </c>
       <c r="C168" t="b">
@@ -2558,7 +2766,7 @@
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="12">
+      <c r="B169" s="11">
         <v>45454</v>
       </c>
       <c r="C169" t="b">
@@ -2567,7 +2775,7 @@
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="12">
+      <c r="B170" s="11">
         <v>45455</v>
       </c>
       <c r="C170" t="b">
@@ -2576,7 +2784,7 @@
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="12">
+      <c r="B171" s="11">
         <v>45456</v>
       </c>
       <c r="C171" t="b">
@@ -2585,7 +2793,7 @@
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="12">
+      <c r="B172" s="11">
         <v>45457</v>
       </c>
       <c r="C172" t="b">
@@ -2594,7 +2802,7 @@
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="12">
+      <c r="B173" s="11">
         <v>45458</v>
       </c>
       <c r="C173" t="b">
@@ -2603,7 +2811,7 @@
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="12">
+      <c r="B174" s="11">
         <v>45459</v>
       </c>
       <c r="C174" t="b">
@@ -2612,7 +2820,7 @@
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="12">
+      <c r="B175" s="11">
         <v>45460</v>
       </c>
       <c r="C175" t="b">
@@ -2621,7 +2829,7 @@
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="12">
+      <c r="B176" s="11">
         <v>45461</v>
       </c>
       <c r="C176" t="b">
@@ -2630,7 +2838,7 @@
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="12">
+      <c r="B177" s="11">
         <v>45462</v>
       </c>
       <c r="C177" t="b">
@@ -2639,7 +2847,7 @@
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="12">
+      <c r="B178" s="11">
         <v>45463</v>
       </c>
       <c r="C178" t="b">
@@ -2648,7 +2856,7 @@
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="12">
+      <c r="B179" s="11">
         <v>45464</v>
       </c>
       <c r="C179" t="b">
@@ -2657,7 +2865,7 @@
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="12">
+      <c r="B180" s="11">
         <v>45465</v>
       </c>
       <c r="C180" t="b">
@@ -2666,7 +2874,7 @@
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="12">
+      <c r="B181" s="11">
         <v>45466</v>
       </c>
       <c r="C181" t="b">
@@ -2675,7 +2883,7 @@
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="12">
+      <c r="B182" s="11">
         <v>45467</v>
       </c>
       <c r="C182" t="b">
@@ -2684,7 +2892,7 @@
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="12">
+      <c r="B183" s="11">
         <v>45468</v>
       </c>
       <c r="C183" t="b">
@@ -2693,7 +2901,7 @@
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="12">
+      <c r="B184" s="11">
         <v>45469</v>
       </c>
       <c r="C184" t="b">
@@ -2702,7 +2910,7 @@
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="12">
+      <c r="B185" s="11">
         <v>45470</v>
       </c>
       <c r="C185" t="b">
@@ -2711,7 +2919,7 @@
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="12">
+      <c r="B186" s="11">
         <v>45471</v>
       </c>
       <c r="C186" t="b">
@@ -2720,7 +2928,7 @@
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="12">
+      <c r="B187" s="11">
         <v>45472</v>
       </c>
       <c r="C187" t="b">
@@ -2729,7 +2937,7 @@
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="12">
+      <c r="B188" s="11">
         <v>45473</v>
       </c>
       <c r="C188" t="b">
@@ -2738,7 +2946,7 @@
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="12">
+      <c r="B189" s="11">
         <v>45474</v>
       </c>
       <c r="C189" t="b">
@@ -2747,7 +2955,7 @@
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="12">
+      <c r="B190" s="11">
         <v>45475</v>
       </c>
       <c r="C190" t="b">
@@ -2756,7 +2964,7 @@
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="12">
+      <c r="B191" s="11">
         <v>45476</v>
       </c>
       <c r="C191" t="b">
@@ -2765,7 +2973,7 @@
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="12">
+      <c r="B192" s="11">
         <v>45477</v>
       </c>
       <c r="C192" t="b">
@@ -2774,7 +2982,7 @@
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="12">
+      <c r="B193" s="11">
         <v>45478</v>
       </c>
       <c r="C193" t="b">
@@ -2783,7 +2991,7 @@
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="12">
+      <c r="B194" s="11">
         <v>45479</v>
       </c>
       <c r="C194" t="b">
@@ -2792,7 +3000,7 @@
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="12">
+      <c r="B195" s="11">
         <v>45480</v>
       </c>
       <c r="C195" t="b">
@@ -2801,7 +3009,7 @@
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="12">
+      <c r="B196" s="11">
         <v>45481</v>
       </c>
       <c r="C196" t="b">
@@ -2810,7 +3018,7 @@
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="12">
+      <c r="B197" s="11">
         <v>45482</v>
       </c>
       <c r="C197" t="b">
@@ -2819,7 +3027,7 @@
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="12">
+      <c r="B198" s="11">
         <v>45483</v>
       </c>
       <c r="C198" t="b">
@@ -2828,7 +3036,7 @@
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="12">
+      <c r="B199" s="11">
         <v>45484</v>
       </c>
       <c r="C199" t="b">
@@ -2837,7 +3045,7 @@
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="12">
+      <c r="B200" s="11">
         <v>45485</v>
       </c>
       <c r="C200" t="b">
@@ -2846,7 +3054,7 @@
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="12">
+      <c r="B201" s="11">
         <v>45486</v>
       </c>
       <c r="C201" t="b">
@@ -2855,7 +3063,7 @@
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="12">
+      <c r="B202" s="11">
         <v>45487</v>
       </c>
       <c r="C202" t="b">
@@ -2864,7 +3072,7 @@
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="12">
+      <c r="B203" s="11">
         <v>45488</v>
       </c>
       <c r="C203" t="b">
@@ -2873,7 +3081,7 @@
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="12">
+      <c r="B204" s="11">
         <v>45489</v>
       </c>
       <c r="C204" t="b">
@@ -2882,7 +3090,7 @@
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="12">
+      <c r="B205" s="11">
         <v>45490</v>
       </c>
       <c r="C205" t="b">
@@ -2891,7 +3099,7 @@
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="12">
+      <c r="B206" s="11">
         <v>45491</v>
       </c>
       <c r="C206" t="b">
@@ -2900,7 +3108,7 @@
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="12">
+      <c r="B207" s="11">
         <v>45492</v>
       </c>
       <c r="C207" t="b">
@@ -2909,7 +3117,7 @@
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="12">
+      <c r="B208" s="11">
         <v>45493</v>
       </c>
       <c r="C208" t="b">
@@ -2918,7 +3126,7 @@
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="12">
+      <c r="B209" s="11">
         <v>45494</v>
       </c>
       <c r="C209" t="b">
@@ -2927,7 +3135,7 @@
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="12">
+      <c r="B210" s="11">
         <v>45495</v>
       </c>
       <c r="C210" t="b">
@@ -2936,7 +3144,7 @@
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="12">
+      <c r="B211" s="11">
         <v>45496</v>
       </c>
       <c r="C211" t="b">
@@ -2945,7 +3153,7 @@
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="12">
+      <c r="B212" s="11">
         <v>45497</v>
       </c>
       <c r="C212" t="b">
@@ -2954,7 +3162,7 @@
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="12">
+      <c r="B213" s="11">
         <v>45498</v>
       </c>
       <c r="C213" t="b">
@@ -2963,7 +3171,7 @@
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="12">
+      <c r="B214" s="11">
         <v>45499</v>
       </c>
       <c r="C214" t="b">
@@ -2972,7 +3180,7 @@
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="12">
+      <c r="B215" s="11">
         <v>45500</v>
       </c>
       <c r="C215" t="b">
@@ -2981,7 +3189,7 @@
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="12">
+      <c r="B216" s="11">
         <v>45501</v>
       </c>
       <c r="C216" t="b">
@@ -2990,7 +3198,7 @@
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="12">
+      <c r="B217" s="11">
         <v>45502</v>
       </c>
       <c r="C217" t="b">
@@ -2999,7 +3207,7 @@
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="12">
+      <c r="B218" s="11">
         <v>45503</v>
       </c>
       <c r="C218" t="b">
@@ -3008,7 +3216,7 @@
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="12">
+      <c r="B219" s="11">
         <v>45504</v>
       </c>
       <c r="C219" t="b">
@@ -3017,7 +3225,7 @@
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="12">
+      <c r="B220" s="11">
         <v>45505</v>
       </c>
       <c r="C220" t="b">
@@ -3026,7 +3234,7 @@
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="12">
+      <c r="B221" s="11">
         <v>45506</v>
       </c>
       <c r="C221" t="b">
@@ -3035,7 +3243,7 @@
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="12">
+      <c r="B222" s="11">
         <v>45507</v>
       </c>
       <c r="C222" t="b">
@@ -3044,7 +3252,7 @@
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="12">
+      <c r="B223" s="11">
         <v>45508</v>
       </c>
       <c r="C223" t="b">
@@ -3053,7 +3261,7 @@
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="12">
+      <c r="B224" s="11">
         <v>45509</v>
       </c>
       <c r="C224" t="b">
@@ -3062,7 +3270,7 @@
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="12">
+      <c r="B225" s="11">
         <v>45510</v>
       </c>
       <c r="C225" t="b">
@@ -3071,7 +3279,7 @@
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="12">
+      <c r="B226" s="11">
         <v>45511</v>
       </c>
       <c r="C226" t="b">
@@ -3080,7 +3288,7 @@
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="12">
+      <c r="B227" s="11">
         <v>45512</v>
       </c>
       <c r="C227" t="b">
@@ -3089,7 +3297,7 @@
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="12">
+      <c r="B228" s="11">
         <v>45513</v>
       </c>
       <c r="C228" t="b">
@@ -3098,7 +3306,7 @@
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="12">
+      <c r="B229" s="11">
         <v>45514</v>
       </c>
       <c r="C229" t="b">
@@ -3107,7 +3315,7 @@
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="12">
+      <c r="B230" s="11">
         <v>45515</v>
       </c>
       <c r="C230" t="b">
@@ -3116,7 +3324,7 @@
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="12">
+      <c r="B231" s="11">
         <v>45516</v>
       </c>
       <c r="C231" t="b">
@@ -3125,7 +3333,7 @@
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="12">
+      <c r="B232" s="11">
         <v>45517</v>
       </c>
       <c r="C232" t="b">
@@ -3134,7 +3342,7 @@
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="12">
+      <c r="B233" s="11">
         <v>45518</v>
       </c>
       <c r="C233" t="b">
@@ -3143,7 +3351,7 @@
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="12">
+      <c r="B234" s="11">
         <v>45519</v>
       </c>
       <c r="C234" t="b">
@@ -3152,7 +3360,7 @@
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="12">
+      <c r="B235" s="11">
         <v>45520</v>
       </c>
       <c r="C235" t="b">
@@ -3161,7 +3369,7 @@
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="12">
+      <c r="B236" s="11">
         <v>45521</v>
       </c>
       <c r="C236" t="b">
@@ -3170,7 +3378,7 @@
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="12">
+      <c r="B237" s="11">
         <v>45522</v>
       </c>
       <c r="C237" t="b">
@@ -3179,7 +3387,7 @@
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="12">
+      <c r="B238" s="11">
         <v>45523</v>
       </c>
       <c r="C238" t="b">
@@ -3188,7 +3396,7 @@
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="12">
+      <c r="B239" s="11">
         <v>45524</v>
       </c>
       <c r="C239" t="b">
@@ -3197,7 +3405,7 @@
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="12">
+      <c r="B240" s="11">
         <v>45525</v>
       </c>
       <c r="C240" t="b">
@@ -3206,7 +3414,7 @@
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="12">
+      <c r="B241" s="11">
         <v>45526</v>
       </c>
       <c r="C241" t="b">
@@ -3215,7 +3423,7 @@
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="12">
+      <c r="B242" s="11">
         <v>45527</v>
       </c>
       <c r="C242" t="b">
@@ -3224,7 +3432,7 @@
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="12">
+      <c r="B243" s="11">
         <v>45528</v>
       </c>
       <c r="C243" t="b">
@@ -3233,7 +3441,7 @@
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="12">
+      <c r="B244" s="11">
         <v>45529</v>
       </c>
       <c r="C244" t="b">
@@ -3242,7 +3450,7 @@
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="12">
+      <c r="B245" s="11">
         <v>45530</v>
       </c>
       <c r="C245" t="b">
@@ -3251,7 +3459,7 @@
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="12">
+      <c r="B246" s="11">
         <v>45531</v>
       </c>
       <c r="C246" t="b">
@@ -3260,7 +3468,7 @@
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="12">
+      <c r="B247" s="11">
         <v>45532</v>
       </c>
       <c r="C247" t="b">
@@ -3269,7 +3477,7 @@
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="12">
+      <c r="B248" s="11">
         <v>45533</v>
       </c>
       <c r="C248" t="b">
@@ -3278,7 +3486,7 @@
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="12">
+      <c r="B249" s="11">
         <v>45534</v>
       </c>
       <c r="C249" t="b">
@@ -3287,7 +3495,7 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="12">
+      <c r="B250" s="11">
         <v>45535</v>
       </c>
       <c r="C250" t="b">
@@ -3296,7 +3504,7 @@
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="12">
+      <c r="B251" s="11">
         <v>45536</v>
       </c>
       <c r="C251" t="b">
@@ -3305,7 +3513,7 @@
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="12">
+      <c r="B252" s="11">
         <v>45537</v>
       </c>
       <c r="C252" t="b">
@@ -3314,7 +3522,7 @@
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="12">
+      <c r="B253" s="11">
         <v>45538</v>
       </c>
       <c r="C253" t="b">
@@ -3323,7 +3531,7 @@
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="12">
+      <c r="B254" s="11">
         <v>45539</v>
       </c>
       <c r="C254" t="b">
@@ -3332,7 +3540,7 @@
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="12">
+      <c r="B255" s="11">
         <v>45540</v>
       </c>
       <c r="C255" t="b">
@@ -3341,7 +3549,7 @@
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="12">
+      <c r="B256" s="11">
         <v>45541</v>
       </c>
       <c r="C256" t="b">
@@ -3350,7 +3558,7 @@
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="12">
+      <c r="B257" s="11">
         <v>45542</v>
       </c>
       <c r="C257" t="b">
@@ -3359,7 +3567,7 @@
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="12">
+      <c r="B258" s="11">
         <v>45543</v>
       </c>
       <c r="C258" t="b">
@@ -3368,7 +3576,7 @@
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="12">
+      <c r="B259" s="11">
         <v>45544</v>
       </c>
       <c r="C259" t="b">
@@ -3377,7 +3585,7 @@
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="12">
+      <c r="B260" s="11">
         <v>45545</v>
       </c>
       <c r="C260" t="b">
@@ -3386,7 +3594,7 @@
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="12">
+      <c r="B261" s="11">
         <v>45546</v>
       </c>
       <c r="C261" t="b">
@@ -3395,7 +3603,7 @@
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="12">
+      <c r="B262" s="11">
         <v>45547</v>
       </c>
       <c r="C262" t="b">
@@ -3404,7 +3612,7 @@
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="12">
+      <c r="B263" s="11">
         <v>45548</v>
       </c>
       <c r="C263" t="b">
@@ -3413,7 +3621,7 @@
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="12">
+      <c r="B264" s="11">
         <v>45549</v>
       </c>
       <c r="C264" t="b">
@@ -3422,7 +3630,7 @@
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="12">
+      <c r="B265" s="11">
         <v>45550</v>
       </c>
       <c r="C265" t="b">
@@ -3431,7 +3639,7 @@
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="12">
+      <c r="B266" s="11">
         <v>45551</v>
       </c>
       <c r="C266" t="b">
@@ -3440,7 +3648,7 @@
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="12">
+      <c r="B267" s="11">
         <v>45552</v>
       </c>
       <c r="C267" t="b">
@@ -3449,7 +3657,7 @@
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="12">
+      <c r="B268" s="11">
         <v>45553</v>
       </c>
       <c r="C268" t="b">
@@ -3458,7 +3666,7 @@
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="12">
+      <c r="B269" s="11">
         <v>45554</v>
       </c>
       <c r="C269" t="b">
@@ -3467,7 +3675,7 @@
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B270" s="12">
+      <c r="B270" s="11">
         <v>45555</v>
       </c>
       <c r="C270" t="b">
@@ -3476,7 +3684,7 @@
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="12">
+      <c r="B271" s="11">
         <v>45556</v>
       </c>
       <c r="C271" t="b">
@@ -3485,7 +3693,7 @@
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="12">
+      <c r="B272" s="11">
         <v>45557</v>
       </c>
       <c r="C272" t="b">
@@ -3494,7 +3702,7 @@
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="12">
+      <c r="B273" s="11">
         <v>45558</v>
       </c>
       <c r="C273" t="b">
@@ -3503,7 +3711,7 @@
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="12">
+      <c r="B274" s="11">
         <v>45559</v>
       </c>
       <c r="C274" t="b">
@@ -3512,7 +3720,7 @@
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="12">
+      <c r="B275" s="11">
         <v>45560</v>
       </c>
       <c r="C275" t="b">
@@ -3521,7 +3729,7 @@
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="12">
+      <c r="B276" s="11">
         <v>45561</v>
       </c>
       <c r="C276" t="b">
@@ -3530,7 +3738,7 @@
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="12">
+      <c r="B277" s="11">
         <v>45562</v>
       </c>
       <c r="C277" t="b">
@@ -3539,7 +3747,7 @@
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="12">
+      <c r="B278" s="11">
         <v>45563</v>
       </c>
       <c r="C278" t="b">
@@ -3548,7 +3756,7 @@
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="12">
+      <c r="B279" s="11">
         <v>45564</v>
       </c>
       <c r="C279" t="b">
@@ -3557,7 +3765,7 @@
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="12">
+      <c r="B280" s="11">
         <v>45565</v>
       </c>
       <c r="C280" t="b">
@@ -3566,7 +3774,7 @@
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="12">
+      <c r="B281" s="11">
         <v>45566</v>
       </c>
       <c r="C281" t="b">
@@ -3575,7 +3783,7 @@
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="12">
+      <c r="B282" s="11">
         <v>45567</v>
       </c>
       <c r="C282" t="b">
@@ -3584,7 +3792,7 @@
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="12">
+      <c r="B283" s="11">
         <v>45568</v>
       </c>
       <c r="C283" t="b">
@@ -3593,7 +3801,7 @@
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B284" s="12">
+      <c r="B284" s="11">
         <v>45569</v>
       </c>
       <c r="C284" t="b">
@@ -3602,7 +3810,7 @@
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="12">
+      <c r="B285" s="11">
         <v>45570</v>
       </c>
       <c r="C285" t="b">
@@ -3611,7 +3819,7 @@
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="12">
+      <c r="B286" s="11">
         <v>45571</v>
       </c>
       <c r="C286" t="b">
@@ -3620,7 +3828,7 @@
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B287" s="12">
+      <c r="B287" s="11">
         <v>45572</v>
       </c>
       <c r="C287" t="b">
@@ -3629,7 +3837,7 @@
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="12">
+      <c r="B288" s="11">
         <v>45573</v>
       </c>
       <c r="C288" t="b">
@@ -3638,7 +3846,7 @@
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B289" s="12">
+      <c r="B289" s="11">
         <v>45574</v>
       </c>
       <c r="C289" t="b">
@@ -3647,7 +3855,7 @@
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B290" s="12">
+      <c r="B290" s="11">
         <v>45575</v>
       </c>
       <c r="C290" t="b">
@@ -3656,7 +3864,7 @@
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B291" s="12">
+      <c r="B291" s="11">
         <v>45576</v>
       </c>
       <c r="C291" t="b">
@@ -3665,7 +3873,7 @@
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B292" s="12">
+      <c r="B292" s="11">
         <v>45577</v>
       </c>
       <c r="C292" t="b">
@@ -3674,7 +3882,7 @@
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="12">
+      <c r="B293" s="11">
         <v>45578</v>
       </c>
       <c r="C293" t="b">
@@ -3683,7 +3891,7 @@
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B294" s="12">
+      <c r="B294" s="11">
         <v>45579</v>
       </c>
       <c r="C294" t="b">
@@ -3692,7 +3900,7 @@
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B295" s="12">
+      <c r="B295" s="11">
         <v>45580</v>
       </c>
       <c r="C295" t="b">
@@ -3701,7 +3909,7 @@
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B296" s="12">
+      <c r="B296" s="11">
         <v>45581</v>
       </c>
       <c r="C296" t="b">
@@ -3710,7 +3918,7 @@
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="12">
+      <c r="B297" s="11">
         <v>45582</v>
       </c>
       <c r="C297" t="b">
@@ -3719,7 +3927,7 @@
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="12">
+      <c r="B298" s="11">
         <v>45583</v>
       </c>
       <c r="C298" t="b">
@@ -3728,7 +3936,7 @@
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" s="12">
+      <c r="B299" s="11">
         <v>45584</v>
       </c>
       <c r="C299" t="b">
@@ -3737,7 +3945,7 @@
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" s="12">
+      <c r="B300" s="11">
         <v>45585</v>
       </c>
       <c r="C300" t="b">
@@ -3746,7 +3954,7 @@
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" s="12">
+      <c r="B301" s="11">
         <v>45586</v>
       </c>
       <c r="C301" t="b">
@@ -3755,7 +3963,7 @@
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="12">
+      <c r="B302" s="11">
         <v>45587</v>
       </c>
       <c r="C302" t="b">
@@ -3764,7 +3972,7 @@
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" s="12">
+      <c r="B303" s="11">
         <v>45588</v>
       </c>
       <c r="C303" t="b">
@@ -3773,7 +3981,7 @@
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="12">
+      <c r="B304" s="11">
         <v>45589</v>
       </c>
       <c r="C304" t="b">
@@ -3782,7 +3990,7 @@
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="12">
+      <c r="B305" s="11">
         <v>45590</v>
       </c>
       <c r="C305" t="b">
@@ -3791,7 +3999,7 @@
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="12">
+      <c r="B306" s="11">
         <v>45591</v>
       </c>
       <c r="C306" t="b">
@@ -3800,7 +4008,7 @@
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="12">
+      <c r="B307" s="11">
         <v>45592</v>
       </c>
       <c r="C307" t="b">
@@ -3809,7 +4017,7 @@
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="12">
+      <c r="B308" s="11">
         <v>45593</v>
       </c>
       <c r="C308" t="b">
@@ -3818,7 +4026,7 @@
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="12">
+      <c r="B309" s="11">
         <v>45594</v>
       </c>
       <c r="C309" t="b">
@@ -3827,7 +4035,7 @@
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="12">
+      <c r="B310" s="11">
         <v>45595</v>
       </c>
       <c r="C310" t="b">
@@ -3836,7 +4044,7 @@
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="12">
+      <c r="B311" s="11">
         <v>45596</v>
       </c>
       <c r="C311" t="b">
@@ -3845,7 +4053,7 @@
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="12">
+      <c r="B312" s="11">
         <v>45597</v>
       </c>
       <c r="C312" t="b">
@@ -3854,7 +4062,7 @@
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="12">
+      <c r="B313" s="11">
         <v>45598</v>
       </c>
       <c r="C313" t="b">
@@ -3863,7 +4071,7 @@
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="12">
+      <c r="B314" s="11">
         <v>45599</v>
       </c>
       <c r="C314" t="b">
@@ -3872,7 +4080,7 @@
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="12">
+      <c r="B315" s="11">
         <v>45600</v>
       </c>
       <c r="C315" t="b">
@@ -3881,7 +4089,7 @@
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="12">
+      <c r="B316" s="11">
         <v>45601</v>
       </c>
       <c r="C316" t="b">
@@ -3890,7 +4098,7 @@
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="12">
+      <c r="B317" s="11">
         <v>45602</v>
       </c>
       <c r="C317" t="b">
@@ -3899,7 +4107,7 @@
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="12">
+      <c r="B318" s="11">
         <v>45603</v>
       </c>
       <c r="C318" t="b">
@@ -3908,7 +4116,7 @@
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="12">
+      <c r="B319" s="11">
         <v>45604</v>
       </c>
       <c r="C319" t="b">
@@ -3917,7 +4125,7 @@
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="12">
+      <c r="B320" s="11">
         <v>45605</v>
       </c>
       <c r="C320" t="b">
@@ -3926,7 +4134,7 @@
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="12">
+      <c r="B321" s="11">
         <v>45606</v>
       </c>
       <c r="C321" t="b">
@@ -3935,7 +4143,7 @@
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="12">
+      <c r="B322" s="11">
         <v>45607</v>
       </c>
       <c r="C322" t="b">
@@ -3944,7 +4152,7 @@
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="12">
+      <c r="B323" s="11">
         <v>45608</v>
       </c>
       <c r="C323" t="b">
@@ -3953,7 +4161,7 @@
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="12">
+      <c r="B324" s="11">
         <v>45609</v>
       </c>
       <c r="C324" t="b">
@@ -3962,7 +4170,7 @@
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="12">
+      <c r="B325" s="11">
         <v>45610</v>
       </c>
       <c r="C325" t="b">
@@ -3971,7 +4179,7 @@
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="12">
+      <c r="B326" s="11">
         <v>45611</v>
       </c>
       <c r="C326" t="b">
@@ -3980,7 +4188,7 @@
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="12">
+      <c r="B327" s="11">
         <v>45612</v>
       </c>
       <c r="C327" t="b">
@@ -3989,7 +4197,7 @@
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="12">
+      <c r="B328" s="11">
         <v>45613</v>
       </c>
       <c r="C328" t="b">
@@ -3998,7 +4206,7 @@
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="12">
+      <c r="B329" s="11">
         <v>45614</v>
       </c>
       <c r="C329" t="b">
@@ -4007,7 +4215,7 @@
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="12">
+      <c r="B330" s="11">
         <v>45615</v>
       </c>
       <c r="C330" t="b">
@@ -4016,7 +4224,7 @@
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="12">
+      <c r="B331" s="11">
         <v>45616</v>
       </c>
       <c r="C331" t="b">
@@ -4025,7 +4233,7 @@
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="12">
+      <c r="B332" s="11">
         <v>45617</v>
       </c>
       <c r="C332" t="b">
@@ -4034,7 +4242,7 @@
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="12">
+      <c r="B333" s="11">
         <v>45618</v>
       </c>
       <c r="C333" t="b">
@@ -4043,7 +4251,7 @@
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="12">
+      <c r="B334" s="11">
         <v>45619</v>
       </c>
       <c r="C334" t="b">
@@ -4052,7 +4260,7 @@
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="12">
+      <c r="B335" s="11">
         <v>45620</v>
       </c>
       <c r="C335" t="b">
@@ -4061,7 +4269,7 @@
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="12">
+      <c r="B336" s="11">
         <v>45621</v>
       </c>
       <c r="C336" t="b">
@@ -4070,7 +4278,7 @@
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B337" s="12">
+      <c r="B337" s="11">
         <v>45622</v>
       </c>
       <c r="C337" t="b">
@@ -4079,7 +4287,7 @@
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B338" s="12">
+      <c r="B338" s="11">
         <v>45623</v>
       </c>
       <c r="C338" t="b">
@@ -4088,7 +4296,7 @@
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B339" s="12">
+      <c r="B339" s="11">
         <v>45624</v>
       </c>
       <c r="C339" t="b">
@@ -4097,7 +4305,7 @@
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B340" s="12">
+      <c r="B340" s="11">
         <v>45625</v>
       </c>
       <c r="C340" t="b">
@@ -4106,7 +4314,7 @@
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B341" s="12">
+      <c r="B341" s="11">
         <v>45626</v>
       </c>
       <c r="C341" t="b">
@@ -4115,7 +4323,7 @@
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B342" s="12">
+      <c r="B342" s="11">
         <v>45627</v>
       </c>
       <c r="C342" t="b">
@@ -4124,7 +4332,7 @@
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B343" s="12">
+      <c r="B343" s="11">
         <v>45628</v>
       </c>
       <c r="C343" t="b">
@@ -4133,7 +4341,7 @@
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B344" s="12">
+      <c r="B344" s="11">
         <v>45629</v>
       </c>
       <c r="C344" t="b">
@@ -4142,7 +4350,7 @@
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B345" s="12">
+      <c r="B345" s="11">
         <v>45630</v>
       </c>
       <c r="C345" t="b">
@@ -4151,7 +4359,7 @@
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B346" s="12">
+      <c r="B346" s="11">
         <v>45631</v>
       </c>
       <c r="C346" t="b">
@@ -4160,7 +4368,7 @@
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B347" s="12">
+      <c r="B347" s="11">
         <v>45632</v>
       </c>
       <c r="C347" t="b">
@@ -4169,7 +4377,7 @@
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B348" s="12">
+      <c r="B348" s="11">
         <v>45633</v>
       </c>
       <c r="C348" t="b">
@@ -4178,7 +4386,7 @@
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="12">
+      <c r="B349" s="11">
         <v>45634</v>
       </c>
       <c r="C349" t="b">
@@ -4187,7 +4395,7 @@
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B350" s="12">
+      <c r="B350" s="11">
         <v>45635</v>
       </c>
       <c r="C350" t="b">
@@ -4196,7 +4404,7 @@
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B351" s="12">
+      <c r="B351" s="11">
         <v>45636</v>
       </c>
       <c r="C351" t="b">
@@ -4205,7 +4413,7 @@
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B352" s="12">
+      <c r="B352" s="11">
         <v>45637</v>
       </c>
       <c r="C352" t="b">
@@ -4214,7 +4422,7 @@
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B353" s="12">
+      <c r="B353" s="11">
         <v>45638</v>
       </c>
       <c r="C353" t="b">
@@ -4223,7 +4431,7 @@
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B354" s="12">
+      <c r="B354" s="11">
         <v>45639</v>
       </c>
       <c r="C354" t="b">
@@ -4232,7 +4440,7 @@
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B355" s="12">
+      <c r="B355" s="11">
         <v>45640</v>
       </c>
       <c r="C355" t="b">
@@ -4241,7 +4449,7 @@
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B356" s="12">
+      <c r="B356" s="11">
         <v>45641</v>
       </c>
       <c r="C356" t="b">
@@ -4250,7 +4458,7 @@
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B357" s="12">
+      <c r="B357" s="11">
         <v>45642</v>
       </c>
       <c r="C357" t="b">
@@ -4259,7 +4467,7 @@
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B358" s="12">
+      <c r="B358" s="11">
         <v>45643</v>
       </c>
       <c r="C358" t="b">
@@ -4268,7 +4476,7 @@
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B359" s="12">
+      <c r="B359" s="11">
         <v>45644</v>
       </c>
       <c r="C359" t="b">
@@ -4277,7 +4485,7 @@
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B360" s="12">
+      <c r="B360" s="11">
         <v>45645</v>
       </c>
       <c r="C360" t="b">
@@ -4286,7 +4494,7 @@
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B361" s="12">
+      <c r="B361" s="11">
         <v>45646</v>
       </c>
       <c r="C361" t="b">
@@ -4295,7 +4503,7 @@
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B362" s="12">
+      <c r="B362" s="11">
         <v>45647</v>
       </c>
       <c r="C362" t="b">
@@ -4304,7 +4512,7 @@
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B363" s="12">
+      <c r="B363" s="11">
         <v>45648</v>
       </c>
       <c r="C363" t="b">
@@ -4313,7 +4521,7 @@
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B364" s="12">
+      <c r="B364" s="11">
         <v>45649</v>
       </c>
       <c r="C364" t="b">
@@ -4322,7 +4530,7 @@
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B365" s="12">
+      <c r="B365" s="11">
         <v>45650</v>
       </c>
       <c r="C365" t="b">
@@ -4331,7 +4539,7 @@
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B366" s="12">
+      <c r="B366" s="11">
         <v>45651</v>
       </c>
       <c r="C366" t="b">
@@ -4340,7 +4548,7 @@
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B367" s="12">
+      <c r="B367" s="11">
         <v>45652</v>
       </c>
       <c r="C367" t="b">
@@ -4349,7 +4557,7 @@
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B368" s="12">
+      <c r="B368" s="11">
         <v>45653</v>
       </c>
       <c r="C368" t="b">
@@ -4358,7 +4566,7 @@
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B369" s="12">
+      <c r="B369" s="11">
         <v>45654</v>
       </c>
       <c r="C369" t="b">
@@ -4367,7 +4575,7 @@
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B370" s="12">
+      <c r="B370" s="11">
         <v>45655</v>
       </c>
       <c r="C370" t="b">
@@ -4376,7 +4584,7 @@
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B371" s="12">
+      <c r="B371" s="11">
         <v>45656</v>
       </c>
       <c r="C371" t="b">
@@ -4385,7 +4593,7 @@
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B372" s="12">
+      <c r="B372" s="11">
         <v>45657</v>
       </c>
       <c r="C372" t="b">
@@ -4394,8 +4602,15 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A951A56A-48FB-4F98-BF1E-82AC2BD4FD33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4437,7 +4652,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>23-Feb-2024</v>
+        <v>24-Feb-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4573,19 +4788,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -4593,11 +4804,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -4605,19 +4815,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -4625,11 +4831,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -4637,19 +4842,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -4657,11 +4858,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -4669,13 +4869,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
@@ -4748,7 +4948,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>23-Feb-2024</v>
+        <v>24-Feb-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/EODATE-Drill.xlsx
+++ b/EODATE-Drill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB1529A-9115-490B-8DA3-B84E8080FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975EC39-9993-4F90-BBF6-A05A49ADEB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17880" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -833,7 +835,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1131,6 +1133,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="912" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2BF21D18-63B8-421B-858B-DC19A1EDA548}">
+  <we:reference id="wa200001584" version="2.8.1.5" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200001584" version="2.8.1.5" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
@@ -1139,7 +1161,7 @@
   <dimension ref="A1:J372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1169,7 @@
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/EODATE-Drill.xlsx
+++ b/EODATE-Drill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F975EC39-9993-4F90-BBF6-A05A49ADEB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC44234-0DE4-4120-BAA4-62DE8C51D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>FROM:</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>If I don’t want to use SUMIFS, what is an alternative?</t>
+  </si>
+  <si>
+    <t>Filter</t>
   </si>
 </sst>
 </file>
@@ -835,7 +841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1138,6 +1144,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="912" row="7">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -1153,15 +1162,34 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{05D9AAB5-CAF3-4499-B844-E291BECAD28C}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:J372"/>
+  <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1201,7 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1210,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1206,10 +1234,10 @@
         <v>25</v>
       </c>
       <c r="J3" s="12">
-        <v>45171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F6" s="12">
         <v>45123</v>
       </c>
@@ -1235,10 +1263,14 @@
       </c>
       <c r="J6">
         <f>SUMIFS(Table2[Value],Table2[Date],"&gt;"&amp;EOMONTH($J$3,-1),Table2[Date],"&lt;="&amp;EOMONTH($J$3,0))</f>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="L6" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(J6)</f>
+        <v>=SUMIFS(Table2[Value],Table2[Date],"&gt;"&amp;EOMONTH($J$3,-1),Table2[Date],"&lt;="&amp;EOMONTH($J$3,0))</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="11" cm="1">
         <f t="array" ref="B7:B372">DATE(2024,1,_xlfn.SEQUENCE(366,1,1,1))</f>
         <v>45292</v>
@@ -1254,7 +1286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>45293</v>
       </c>
@@ -1269,7 +1301,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>45294</v>
       </c>
@@ -1283,8 +1315,11 @@
       <c r="G9">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>45295</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>45296</v>
       </c>
@@ -1314,8 +1349,25 @@
       <c r="G11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xlfn.LET(
+_xlpm.key,YEAR(J3)&amp;"_"&amp;MONTH(J3),
+SUM(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],YEAR(Table2[Date])&amp;"_"&amp;MONTH(Table2[Date])=_xlpm.key),,-1))
+)</f>
+        <v>436</v>
+      </c>
+      <c r="L11" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(J11)</f>
+        <v>=LET(
+key,YEAR(J3)&amp;"_"&amp;MONTH(J3),
+SUM(TAKE(FILTER(Table2,YEAR(Table2[Date])&amp;"_"&amp;MONTH(Table2[Date])=key),,-1))
+)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>45297</v>
       </c>
@@ -1330,7 +1382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>45298</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>45299</v>
       </c>
@@ -1360,7 +1412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>45300</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>45301</v>
       </c>

--- a/EODATE-Drill.xlsx
+++ b/EODATE-Drill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC44234-0DE4-4120-BAA4-62DE8C51D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88395322-ADE5-4D7B-A569-75916E02FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="600" yWindow="1656" windowWidth="17856" windowHeight="8880" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>FROM:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>Try this experiment</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1172,6 +1175,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1189,7 +1195,7 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1215,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4727,7 +4736,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>24-Feb-2024</v>
+        <v>26-Feb-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -5023,7 +5032,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>24-Feb-2024</v>
+        <v>26-Feb-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
